--- a/modified_tables/table_24.xlsx
+++ b/modified_tables/table_24.xlsx
@@ -11,6 +11,95 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Wind power</t>
+  </si>
+  <si>
+    <t>4,251.0</t>
+  </si>
+  <si>
+    <t>3,463.2</t>
+  </si>
+  <si>
+    <t>3,683.3</t>
+  </si>
+  <si>
+    <t>Biogas</t>
+  </si>
+  <si>
+    <t>101.2</t>
+  </si>
+  <si>
+    <t>103.2</t>
+  </si>
+  <si>
+    <t>82.6</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>59.7</t>
+  </si>
+  <si>
+    <t>28.8</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>Photovoltaics</t>
+  </si>
+  <si>
+    <t>969.4</t>
+  </si>
+  <si>
+    <t>895.2</t>
+  </si>
+  <si>
+    <t>1,004.1</t>
+  </si>
+  <si>
+    <t>Hydropower</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>5,384.0</t>
+  </si>
+  <si>
+    <t>4,498.7</t>
+  </si>
+  <si>
+    <t>4,791.7</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,36 +455,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>42.2</v>
-      </c>
-      <c r="B2">
-        <v>18.4</v>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>42.3</v>
-      </c>
-      <c r="B4">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
